--- a/data_analyzed/regression.xlsx
+++ b/data_analyzed/regression.xlsx
@@ -477,22 +477,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.523697624509065</v>
+        <v>1.528728191020881</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
         <v>-0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05760505231793527</v>
+        <v>-0.005501763637493055</v>
       </c>
       <c r="G2" t="n">
-        <v>0.159300344469102</v>
+        <v>0.1121107236151534</v>
       </c>
     </row>
     <row r="3">
@@ -502,10 +502,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0</v>
+        <v>-8.856209988319669e-17</v>
       </c>
       <c r="C3" t="n">
-        <v>5.399782269395556e-16</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>-0</v>
@@ -514,7 +514,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09387131210332411</v>
+        <v>0.09480635032960948</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -530,19 +530,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>-5.168543850620987</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.1146384685553323</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4470051127891475</v>
+        <v>-0.1954126268272056</v>
       </c>
       <c r="G4" t="n">
-        <v>0.08434032264639113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -552,22 +552,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.019950113462035</v>
+        <v>1.11426957424362</v>
       </c>
       <c r="C5" t="n">
-        <v>8.883083875756929</v>
+        <v>0.1518058952079546</v>
       </c>
       <c r="D5" t="n">
-        <v>0.373602808662443</v>
+        <v>0.02603950807985474</v>
       </c>
       <c r="E5" t="n">
-        <v>0.007534745312150088</v>
+        <v>-0</v>
       </c>
       <c r="F5" t="n">
-        <v>1.462322904724322</v>
+        <v>2.438082653878514</v>
       </c>
       <c r="G5" t="n">
-        <v>0.07533861392066044</v>
+        <v>0.01599668415018052</v>
       </c>
     </row>
   </sheetData>

--- a/data_analyzed/regression.xlsx
+++ b/data_analyzed/regression.xlsx
@@ -441,22 +441,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Beta_M1_PH</t>
+          <t>Beta_M1_RN</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Beta_CM2_PH</t>
+          <t>Beta_CM2_RN</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Beta_CMN3_PH</t>
+          <t>Beta_CMN3_RN</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Beta_CMN4_PH</t>
+          <t>Beta_CMN4_RN</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">

--- a/data_analyzed/regression.xlsx
+++ b/data_analyzed/regression.xlsx
@@ -477,10 +477,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.528728191020881</v>
+        <v>1.255084099591062</v>
       </c>
       <c r="C2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>-0</v>
@@ -489,10 +489,10 @@
         <v>-0</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.005501763637493055</v>
+        <v>-0.07526281778284652</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1121107236151534</v>
+        <v>0.06112493876441671</v>
       </c>
     </row>
     <row r="3">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-8.856209988319669e-17</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -514,7 +514,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09480635032960948</v>
+        <v>0.1146013691737822</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1954126268272056</v>
+        <v>-0.1651586729926508</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -552,22 +552,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.11426957424362</v>
+        <v>1.070040597132289e-15</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1518058952079546</v>
+        <v>-0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02603950807985474</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>-0</v>
       </c>
       <c r="F5" t="n">
-        <v>2.438082653878514</v>
+        <v>2.343275768088881</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01599668415018052</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data_analyzed/regression.xlsx
+++ b/data_analyzed/regression.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.107732738556743</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -486,13 +486,13 @@
         <v>-0</v>
       </c>
       <c r="E2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.07685546929357041</v>
+        <v>-0.06579314222947109</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0489949390430966</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -502,22 +502,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0</v>
+        <v>-0.07909600764659845</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.9807047427925161</v>
       </c>
       <c r="D3" t="n">
-        <v>-0</v>
+        <v>0.01265768756098197</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.007990346254841385</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1122065998459664</v>
+        <v>-0.1018343811709898</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.1673002035305011</v>
       </c>
     </row>
     <row r="4">
@@ -527,22 +527,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C4" t="n">
-        <v>-0</v>
+        <v>-6.404326871522143</v>
       </c>
       <c r="D4" t="n">
-        <v>-0</v>
+        <v>-0.2425370427083099</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0.02784059730917719</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1274192750328835</v>
+        <v>0.9193718120583519</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.1298556790611475</v>
       </c>
     </row>
     <row r="5">
@@ -552,22 +552,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.988614479079335e-16</v>
+        <v>1.165621356363873</v>
       </c>
       <c r="C5" t="n">
-        <v>-0</v>
+        <v>5.022181165303445</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.4156892904508752</v>
       </c>
       <c r="E5" t="n">
-        <v>-0</v>
+        <v>0.04685879615052199</v>
       </c>
       <c r="F5" t="n">
-        <v>2.307198741644828</v>
+        <v>1.423691301974722</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.06494495314546911</v>
       </c>
     </row>
   </sheetData>

--- a/data_analyzed/regression.xlsx
+++ b/data_analyzed/regression.xlsx
@@ -477,10 +477,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1.178129882126193e-15</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
         <v>-0</v>
@@ -489,7 +489,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798119</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -502,22 +502,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.07909600764659845</v>
+        <v>-0.08289575898019103</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9807047427925161</v>
+        <v>0.9903106585873056</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01265768756098197</v>
+        <v>0.01177691257175305</v>
       </c>
       <c r="E3" t="n">
-        <v>0.007990346254841385</v>
+        <v>0.008093668447659621</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1018343811709898</v>
+        <v>-0.1070175284156542</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1673002035305011</v>
+        <v>0.1804359400317334</v>
       </c>
     </row>
     <row r="4">
@@ -530,19 +530,19 @@
         <v>-0</v>
       </c>
       <c r="C4" t="n">
-        <v>-6.404326871522143</v>
+        <v>-6.165029340610553</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.2425370427083099</v>
+        <v>-0.2472005576848152</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.02784059730917719</v>
+        <v>-0.02856527561613417</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9193718120583519</v>
+        <v>0.8832184190052191</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1298556790611475</v>
+        <v>0.1234348156708869</v>
       </c>
     </row>
     <row r="5">
@@ -552,22 +552,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.165621356363873</v>
+        <v>0.7766028476132117</v>
       </c>
       <c r="C5" t="n">
-        <v>5.022181165303445</v>
+        <v>4.270068889679008</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4156892904508752</v>
+        <v>0.353782941028675</v>
       </c>
       <c r="E5" t="n">
-        <v>0.04685879615052199</v>
+        <v>0.04391335061045822</v>
       </c>
       <c r="F5" t="n">
-        <v>1.423691301974722</v>
+        <v>1.518421329113093</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06494495314546911</v>
+        <v>0.05388754895521131</v>
       </c>
     </row>
   </sheetData>

--- a/data_analyzed/regression.xlsx
+++ b/data_analyzed/regression.xlsx
@@ -477,22 +477,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.178129882126193e-15</v>
+        <v>0.4541824079941478</v>
       </c>
       <c r="C2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>-0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.05048609355798119</v>
+        <v>-0.05893969428129912</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.02190640094972918</v>
       </c>
     </row>
     <row r="3">
@@ -502,22 +502,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.08289575898019103</v>
+        <v>-0.0953207815867339</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9903106585873056</v>
+        <v>1.246671481468808</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01177691257175305</v>
+        <v>0.01274260953819271</v>
       </c>
       <c r="E3" t="n">
-        <v>0.008093668447659621</v>
+        <v>0.008141472069427082</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1070175284156542</v>
+        <v>-0.1383261803054674</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1804359400317334</v>
+        <v>0.2335851816738185</v>
       </c>
     </row>
     <row r="4">
@@ -530,19 +530,19 @@
         <v>-0</v>
       </c>
       <c r="C4" t="n">
-        <v>-6.165029340610553</v>
+        <v>-4.830708577419386</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.2472005576848152</v>
+        <v>-0.1905568864221556</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.02856527561613417</v>
+        <v>-0.02564763670246348</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8832184190052191</v>
+        <v>0.701849231034411</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1234348156708869</v>
+        <v>0.1046834929321234</v>
       </c>
     </row>
     <row r="5">
@@ -552,22 +552,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7766028476132117</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>4.270068889679008</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.353782941028675</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.04391335061045822</v>
+        <v>0.009454868586074165</v>
       </c>
       <c r="F5" t="n">
-        <v>1.518421329113093</v>
+        <v>2.22256253764252</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05388754895521131</v>
+        <v>0.01004616553380022</v>
       </c>
     </row>
   </sheetData>

--- a/data_analyzed/regression.xlsx
+++ b/data_analyzed/regression.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4541824079941478</v>
+        <v>0.3854739455626746</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -486,13 +486,13 @@
         <v>-0</v>
       </c>
       <c r="E2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.05893969428129912</v>
+        <v>-0.03962185825936195</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02190640094972918</v>
+        <v>0.01805676298785952</v>
       </c>
     </row>
     <row r="3">
@@ -502,22 +502,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.0953207815867339</v>
+        <v>-0.05480118223795406</v>
       </c>
       <c r="C3" t="n">
-        <v>1.246671481468808</v>
+        <v>1.288231335644898</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01274260953819271</v>
+        <v>0.006641498110503894</v>
       </c>
       <c r="E3" t="n">
-        <v>0.008141472069427082</v>
+        <v>0.004705187883590671</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1383261803054674</v>
+        <v>-0.1075615368144068</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2335851816738185</v>
+        <v>0.1589222979733107</v>
       </c>
     </row>
     <row r="4">
@@ -527,22 +527,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0</v>
+        <v>0.05483535554023129</v>
       </c>
       <c r="C4" t="n">
-        <v>-4.830708577419386</v>
+        <v>-5.234930118604909</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.1905568864221556</v>
+        <v>-0.3655849929097255</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.02564763670246348</v>
+        <v>-0.03295839414375842</v>
       </c>
       <c r="F4" t="n">
-        <v>0.701849231034411</v>
+        <v>0.7021308375697177</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1046834929321234</v>
+        <v>0.09584828949574475</v>
       </c>
     </row>
     <row r="5">
@@ -552,22 +552,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.7346593316326704</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>3.111218448870295</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.4556031319157312</v>
       </c>
       <c r="E5" t="n">
-        <v>0.009454868586074165</v>
+        <v>0.0504320718900517</v>
       </c>
       <c r="F5" t="n">
-        <v>2.22256253764252</v>
+        <v>1.727024331227208</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01004616553380022</v>
+        <v>0.03731861978146789</v>
       </c>
     </row>
   </sheetData>

--- a/data_analyzed/regression.xlsx
+++ b/data_analyzed/regression.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3854739455626746</v>
+        <v>0.5221560290833208</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.03962185825936195</v>
+        <v>-0.05129352274527475</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01805676298785952</v>
+        <v>0.02105256171066017</v>
       </c>
     </row>
     <row r="3">
@@ -502,22 +502,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.05480118223795406</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>1.288231335644898</v>
+        <v>1.883755677125502</v>
       </c>
       <c r="D3" t="n">
-        <v>0.006641498110503894</v>
+        <v>-0.02424248800005668</v>
       </c>
       <c r="E3" t="n">
-        <v>0.004705187883590671</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1075615368144068</v>
+        <v>-0.153985498962694</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1589222979733107</v>
+        <v>0.2131748716801588</v>
       </c>
     </row>
     <row r="4">
@@ -527,22 +527,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05483535554023129</v>
+        <v>0.367850050040737</v>
       </c>
       <c r="C4" t="n">
-        <v>-5.234930118604909</v>
+        <v>-2.645415543603616</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.3655849929097255</v>
+        <v>-0.5038200648603836</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.03295839414375842</v>
+        <v>-0.04762718100805836</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7021308375697177</v>
+        <v>0.3687881984690254</v>
       </c>
       <c r="G4" t="n">
-        <v>0.09584828949574475</v>
+        <v>0.07462854012874431</v>
       </c>
     </row>
     <row r="5">
@@ -552,22 +552,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7346593316326704</v>
+        <v>0.8041598595236551</v>
       </c>
       <c r="C5" t="n">
-        <v>3.111218448870295</v>
+        <v>3.813575442861219</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4556031319157312</v>
+        <v>0.3519732243766822</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0504320718900517</v>
+        <v>0.04147160535054734</v>
       </c>
       <c r="F5" t="n">
-        <v>1.727024331227208</v>
+        <v>1.642431188396341</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03731861978146789</v>
+        <v>0.03827939429868066</v>
       </c>
     </row>
   </sheetData>
